--- a/dokumentacja/eksperymenty.xlsx
+++ b/dokumentacja/eksperymenty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01133357\Documents\_praca_inzynierska\ai-complete\dokumentacja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EF808D9-97E2-49F9-82A8-92A663250F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E9CABD-637C-45C4-BF8C-8FFA4EC8B5C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16356" yWindow="4212" windowWidth="23040" windowHeight="12204" xr2:uid="{9A7739E3-D6A7-48D5-BDEA-088820F01070}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9A7739E3-D6A7-48D5-BDEA-088820F01070}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -223,6 +220,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1528,7 +1528,7 @@
   <dimension ref="D7:Z40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1541,559 +1541,562 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
     </row>
     <row r="8" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
     </row>
     <row r="9" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
     </row>
     <row r="10" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
     </row>
     <row r="27" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>1</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>512</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="2">
+        <v>12016705</v>
+      </c>
     </row>
     <row r="29" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>5</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>1</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>128</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="3">
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="2">
         <v>256</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="3">
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="2">
         <v>512</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="1">
         <v>2</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>128</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D33" s="11"/>
-      <c r="E33" s="5" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>1</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>128</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>10</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>1</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>128</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="3">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="2">
         <v>512</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="1">
         <v>2</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>128</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D37" s="8"/>
-      <c r="E37" s="11"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="1">
         <v>2</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>512</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D38" s="11"/>
-      <c r="E38" s="3" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>1</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>128</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>15</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>1</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>128</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="3">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="2">
         <v>1</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>512</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D7:Z21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>